--- a/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
+++ b/DbLayouts/L5-管理性作業/PfRewardMedia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PfRewardMedia</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AdjustBonusDate</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -394,6 +390,10 @@
 6:專業獎勵金(L5407，初階授信通過時寫入，只寫一次)
 7:加碼獎金(L5512寫入)
 (依照LN270檔-獎勵金發放檔)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PfRewardMedia</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>68</v>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>71</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>57</v>
@@ -1261,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>58</v>
@@ -1284,7 +1284,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>18</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="162">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>73</v>
@@ -1437,7 +1437,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>54</v>
@@ -1457,7 +1457,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>31</v>
@@ -1698,21 +1698,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
